--- a/week4/hourglass52_coco_256x256/regression_test_wkdir/mmdeploy_regression_test_0.8.0.xlsx
+++ b/week4/hourglass52_coco_256x256/regression_test_wkdir/mmdeploy_regression_test_0.8.0.xlsx
@@ -790,7 +790,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>${WORK_DIR}/mmpose/hourglass/ncnn/static/int8/hourglass52_coco_256x256-4ec713ba_20200709/end2end.param</t>
+          <t>${WORK_DIR}/mmpose/hourglass/openvino/static/fp32/hourglass52_coco_256x256-4ec713ba_20200709/end2end.xml</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -800,12 +800,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>ncnn</t>
+          <t>openvino</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>configs/mmpose/pose-detection_ncnn-int8_static-256x256.py</t>
+          <t>configs/mmpose/pose-detection_openvino_static-256x256.py</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>int8</t>
+          <t>fp32</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
